--- a/app/migration_log_sheet.xlsx
+++ b/app/migration_log_sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VersionMatch</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Status</t>
         </is>
       </c>
@@ -486,15 +481,9 @@
           <t>GinDev#4321</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Error creating jobs for the database pgdev: procedure schedule_jobs_in_postgres() does not exist
-LINE 1: call schedule_jobs_in_postgres()
-             ^
-HINT:  No procedure matches the given name and argument types. You might need to add explicit type casts.
-</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Migration failed! 1</t>
         </is>
       </c>
     </row>
@@ -520,7 +509,6 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,7 +532,6 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
